--- a/AAMK.xlsx
+++ b/AAMK.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjkss\Desktop\9. semester\Empirisk-SFC-model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon ik mig\Desktop\9. Semester\komp_r\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C3B155B-93F4-40B5-BA7E-A9F95DD46995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5764E9F-D621-452A-ACA1-C019EC222DA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="532">
   <si>
     <t>IBA_h</t>
   </si>
@@ -1626,18 +1626,28 @@
   <si>
     <t>stat_reg_q</t>
   </si>
+  <si>
+    <t>wage_ds_tt</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1712,27 +1722,30 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2049,11 +2062,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:RC68"/>
+  <dimension ref="A1:RD68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="141" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="FA1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="FK2" sqref="FK2:FK61"/>
+    <sheetView tabSelected="1" zoomScale="141" zoomScaleNormal="60" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="QY1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="RG5" sqref="RG5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2064,7 +2077,7 @@
     <col min="468" max="468" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:471" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:472" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>496</v>
       </c>
@@ -3478,8 +3491,11 @@
       <c r="RC1" s="11" t="s">
         <v>530</v>
       </c>
+      <c r="RD1" s="13" t="s">
+        <v>531</v>
+      </c>
     </row>
-    <row r="2" spans="1:471" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:472" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>356</v>
       </c>
@@ -4894,8 +4910,11 @@
       <c r="RC2">
         <v>0</v>
       </c>
+      <c r="RD2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:471" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:472" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>357</v>
       </c>
@@ -6310,8 +6329,11 @@
       <c r="RC3">
         <v>0</v>
       </c>
+      <c r="RD3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:471" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:472" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>358</v>
       </c>
@@ -7726,8 +7748,11 @@
       <c r="RC4">
         <v>0</v>
       </c>
+      <c r="RD4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:471" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:472" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>359</v>
       </c>
@@ -9142,8 +9167,11 @@
       <c r="RC5">
         <v>0.02</v>
       </c>
+      <c r="RD5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:471" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:472" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>360</v>
       </c>
@@ -10558,8 +10586,11 @@
       <c r="RC6">
         <v>0.02</v>
       </c>
+      <c r="RD6">
+        <v>73.624889999999994</v>
+      </c>
     </row>
-    <row r="7" spans="1:471" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:472" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>361</v>
       </c>
@@ -11974,8 +12005,11 @@
       <c r="RC7">
         <v>0.02</v>
       </c>
+      <c r="RD7">
+        <v>73.624889999999994</v>
+      </c>
     </row>
-    <row r="8" spans="1:471" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:472" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>362</v>
       </c>
@@ -13390,8 +13424,11 @@
       <c r="RC8">
         <v>0.02</v>
       </c>
+      <c r="RD8">
+        <v>73.624889999999994</v>
+      </c>
     </row>
-    <row r="9" spans="1:471" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:472" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>363</v>
       </c>
@@ -14806,8 +14843,11 @@
       <c r="RC9">
         <v>0.02</v>
       </c>
+      <c r="RD9">
+        <v>78.830493921899262</v>
+      </c>
     </row>
-    <row r="10" spans="1:471" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:472" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>364</v>
       </c>
@@ -16222,8 +16262,11 @@
       <c r="RC10">
         <v>0.02</v>
       </c>
+      <c r="RD10">
+        <v>78.830493921899262</v>
+      </c>
     </row>
-    <row r="11" spans="1:471" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:472" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>365</v>
       </c>
@@ -17638,8 +17681,11 @@
       <c r="RC11">
         <v>0.02</v>
       </c>
+      <c r="RD11">
+        <v>78.830493921899262</v>
+      </c>
     </row>
-    <row r="12" spans="1:471" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:472" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>366</v>
       </c>
@@ -19054,8 +19100,11 @@
       <c r="RC12">
         <v>0.02</v>
       </c>
+      <c r="RD12">
+        <v>78.830493921899262</v>
+      </c>
     </row>
-    <row r="13" spans="1:471" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:472" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>367</v>
       </c>
@@ -20470,8 +20519,11 @@
       <c r="RC13">
         <v>0.02</v>
       </c>
+      <c r="RD13">
+        <v>83.785328276118022</v>
+      </c>
     </row>
-    <row r="14" spans="1:471" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:472" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>368</v>
       </c>
@@ -21886,8 +21938,11 @@
       <c r="RC14">
         <v>0.02</v>
       </c>
+      <c r="RD14">
+        <v>83.785328276118022</v>
+      </c>
     </row>
-    <row r="15" spans="1:471" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:472" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>369</v>
       </c>
@@ -23302,8 +23357,11 @@
       <c r="RC15">
         <v>0.02</v>
       </c>
+      <c r="RD15">
+        <v>83.785328276118022</v>
+      </c>
     </row>
-    <row r="16" spans="1:471" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:472" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>370</v>
       </c>
@@ -24718,8 +24776,11 @@
       <c r="RC16">
         <v>0.02</v>
       </c>
+      <c r="RD16">
+        <v>83.785328276118022</v>
+      </c>
     </row>
-    <row r="17" spans="1:471" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:472" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>371</v>
       </c>
@@ -26134,8 +26195,11 @@
       <c r="RC17">
         <v>0.02</v>
       </c>
+      <c r="RD17">
+        <v>85.657543267993731</v>
+      </c>
     </row>
-    <row r="18" spans="1:471" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:472" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>372</v>
       </c>
@@ -27550,8 +27614,11 @@
       <c r="RC18">
         <v>0.02</v>
       </c>
+      <c r="RD18">
+        <v>85.657543267993731</v>
+      </c>
     </row>
-    <row r="19" spans="1:471" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:472" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>373</v>
       </c>
@@ -28966,8 +29033,11 @@
       <c r="RC19">
         <v>0.02</v>
       </c>
+      <c r="RD19">
+        <v>85.657543267993731</v>
+      </c>
     </row>
-    <row r="20" spans="1:471" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:472" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>374</v>
       </c>
@@ -30382,8 +30452,11 @@
       <c r="RC20">
         <v>0.02</v>
       </c>
+      <c r="RD20">
+        <v>85.657543267993731</v>
+      </c>
     </row>
-    <row r="21" spans="1:471" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:472" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>375</v>
       </c>
@@ -31798,8 +31871,11 @@
       <c r="RC21">
         <v>0.02</v>
       </c>
+      <c r="RD21">
+        <v>89.042390250323805</v>
+      </c>
     </row>
-    <row r="22" spans="1:471" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:472" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>376</v>
       </c>
@@ -33214,8 +33290,11 @@
       <c r="RC22">
         <v>0.02</v>
       </c>
+      <c r="RD22">
+        <v>89.042390250323805</v>
+      </c>
     </row>
-    <row r="23" spans="1:471" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:472" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>377</v>
       </c>
@@ -34630,8 +34709,11 @@
       <c r="RC23">
         <v>0.02</v>
       </c>
+      <c r="RD23">
+        <v>89.042390250323805</v>
+      </c>
     </row>
-    <row r="24" spans="1:471" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:472" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>378</v>
       </c>
@@ -36046,8 +36128,11 @@
       <c r="RC24">
         <v>0.02</v>
       </c>
+      <c r="RD24">
+        <v>89.042390250323805</v>
+      </c>
     </row>
-    <row r="25" spans="1:471" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:472" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>379</v>
       </c>
@@ -37462,8 +37547,11 @@
       <c r="RC25">
         <v>0.02</v>
       </c>
+      <c r="RD25">
+        <v>91.434446819117412</v>
+      </c>
     </row>
-    <row r="26" spans="1:471" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:472" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>380</v>
       </c>
@@ -38878,8 +38966,11 @@
       <c r="RC26">
         <v>0.02</v>
       </c>
+      <c r="RD26">
+        <v>91.434446819117412</v>
+      </c>
     </row>
-    <row r="27" spans="1:471" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:472" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>381</v>
       </c>
@@ -40294,8 +40385,11 @@
       <c r="RC27">
         <v>0.02</v>
       </c>
+      <c r="RD27">
+        <v>91.434446819117412</v>
+      </c>
     </row>
-    <row r="28" spans="1:471" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:472" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>382</v>
       </c>
@@ -41710,8 +41804,11 @@
       <c r="RC28">
         <v>0.02</v>
       </c>
+      <c r="RD28">
+        <v>91.434446819117412</v>
+      </c>
     </row>
-    <row r="29" spans="1:471" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:472" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>383</v>
       </c>
@@ -43126,8 +43223,11 @@
       <c r="RC29">
         <v>0.02</v>
       </c>
+      <c r="RD29">
+        <v>93.010487307060401</v>
+      </c>
     </row>
-    <row r="30" spans="1:471" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:472" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>384</v>
       </c>
@@ -44542,8 +44642,11 @@
       <c r="RC30">
         <v>0.02</v>
       </c>
+      <c r="RD30">
+        <v>93.010487307060401</v>
+      </c>
     </row>
-    <row r="31" spans="1:471" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:472" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>385</v>
       </c>
@@ -45958,8 +46061,11 @@
       <c r="RC31">
         <v>0.02</v>
       </c>
+      <c r="RD31">
+        <v>93.010487307060401</v>
+      </c>
     </row>
-    <row r="32" spans="1:471" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:472" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>386</v>
       </c>
@@ -47394,8 +47500,11 @@
       <c r="RC32">
         <v>0.02</v>
       </c>
+      <c r="RD32">
+        <v>93.010487307060401</v>
+      </c>
     </row>
-    <row r="33" spans="1:471" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:472" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>387</v>
       </c>
@@ -48830,8 +48939,11 @@
       <c r="RC33">
         <v>0.02</v>
       </c>
+      <c r="RD33">
+        <v>93.348491200670011</v>
+      </c>
     </row>
-    <row r="34" spans="1:471" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:472" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>388</v>
       </c>
@@ -50266,8 +50378,11 @@
       <c r="RC34">
         <v>0.02</v>
       </c>
+      <c r="RD34">
+        <v>93.348491200670011</v>
+      </c>
     </row>
-    <row r="35" spans="1:471" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:472" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>389</v>
       </c>
@@ -51702,8 +51817,11 @@
       <c r="RC35">
         <v>0.02</v>
       </c>
+      <c r="RD35">
+        <v>93.348491200670011</v>
+      </c>
     </row>
-    <row r="36" spans="1:471" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:472" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>390</v>
       </c>
@@ -53138,8 +53256,11 @@
       <c r="RC36">
         <v>0.02</v>
       </c>
+      <c r="RD36">
+        <v>93.348491200670011</v>
+      </c>
     </row>
-    <row r="37" spans="1:471" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:472" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>391</v>
       </c>
@@ -54574,8 +54695,11 @@
       <c r="RC37">
         <v>0.02</v>
       </c>
+      <c r="RD37">
+        <v>96.151637199606839</v>
+      </c>
     </row>
-    <row r="38" spans="1:471" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:472" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>392</v>
       </c>
@@ -56010,8 +56134,11 @@
       <c r="RC38">
         <v>0.02</v>
       </c>
+      <c r="RD38">
+        <v>96.151637199606839</v>
+      </c>
     </row>
-    <row r="39" spans="1:471" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:472" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>393</v>
       </c>
@@ -57446,8 +57573,11 @@
       <c r="RC39">
         <v>0.02</v>
       </c>
+      <c r="RD39">
+        <v>96.151637199606839</v>
+      </c>
     </row>
-    <row r="40" spans="1:471" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:472" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>394</v>
       </c>
@@ -58882,8 +59012,11 @@
       <c r="RC40">
         <v>0.02</v>
       </c>
+      <c r="RD40">
+        <v>96.151637199606839</v>
+      </c>
     </row>
-    <row r="41" spans="1:471" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:472" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>395</v>
       </c>
@@ -60318,8 +60451,11 @@
       <c r="RC41">
         <v>0.02</v>
       </c>
+      <c r="RD41">
+        <v>97.839080686057898</v>
+      </c>
     </row>
-    <row r="42" spans="1:471" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:472" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>396</v>
       </c>
@@ -61754,8 +61890,11 @@
       <c r="RC42">
         <v>0.02</v>
       </c>
+      <c r="RD42">
+        <v>97.839080686057898</v>
+      </c>
     </row>
-    <row r="43" spans="1:471" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:472" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>397</v>
       </c>
@@ -63190,8 +63329,11 @@
       <c r="RC43">
         <v>0.02</v>
       </c>
+      <c r="RD43">
+        <v>97.839080686057898</v>
+      </c>
     </row>
-    <row r="44" spans="1:471" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:472" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>398</v>
       </c>
@@ -64626,8 +64768,11 @@
       <c r="RC44">
         <v>0.02</v>
       </c>
+      <c r="RD44">
+        <v>97.839080686057898</v>
+      </c>
     </row>
-    <row r="45" spans="1:471" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:472" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>399</v>
       </c>
@@ -66062,8 +66207,11 @@
       <c r="RC45">
         <v>1.4E-2</v>
       </c>
+      <c r="RD45">
+        <v>100.4043370259362</v>
+      </c>
     </row>
-    <row r="46" spans="1:471" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:472" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>400</v>
       </c>
@@ -67498,8 +67646,11 @@
       <c r="RC46">
         <v>1.4E-2</v>
       </c>
+      <c r="RD46">
+        <v>100.4043370259362</v>
+      </c>
     </row>
-    <row r="47" spans="1:471" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:472" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>401</v>
       </c>
@@ -68934,8 +69085,11 @@
       <c r="RC47">
         <v>1.4E-2</v>
       </c>
+      <c r="RD47">
+        <v>100.4043370259362</v>
+      </c>
     </row>
-    <row r="48" spans="1:471" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:472" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>402</v>
       </c>
@@ -70370,8 +70524,11 @@
       <c r="RC48">
         <v>1.4E-2</v>
       </c>
+      <c r="RD48">
+        <v>100.4043370259362</v>
+      </c>
     </row>
-    <row r="49" spans="1:471" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:472" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>403</v>
       </c>
@@ -71806,8 +71963,11 @@
       <c r="RC49">
         <v>1.6E-2</v>
       </c>
+      <c r="RD49">
+        <v>100.5869555929423</v>
+      </c>
     </row>
-    <row r="50" spans="1:471" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:472" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>404</v>
       </c>
@@ -73242,8 +73402,11 @@
       <c r="RC50">
         <v>1.6E-2</v>
       </c>
+      <c r="RD50">
+        <v>100.5869555929423</v>
+      </c>
     </row>
-    <row r="51" spans="1:471" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:472" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>405</v>
       </c>
@@ -74678,8 +74841,11 @@
       <c r="RC51">
         <v>1.6E-2</v>
       </c>
+      <c r="RD51">
+        <v>100.5869555929423</v>
+      </c>
     </row>
-    <row r="52" spans="1:471" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:472" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>406</v>
       </c>
@@ -76114,8 +76280,11 @@
       <c r="RC52">
         <v>1.6E-2</v>
       </c>
+      <c r="RD52">
+        <v>100.5869555929423</v>
+      </c>
     </row>
-    <row r="53" spans="1:471" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:472" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>407</v>
       </c>
@@ -77550,8 +77719,11 @@
       <c r="RC53">
         <v>1.2500000000000001E-2</v>
       </c>
+      <c r="RD53">
+        <v>101.4905262948255</v>
+      </c>
     </row>
-    <row r="54" spans="1:471" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:472" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>408</v>
       </c>
@@ -78987,8 +79159,11 @@
       <c r="RC54">
         <v>1.2500000000000001E-2</v>
       </c>
+      <c r="RD54">
+        <v>101.4905262948255</v>
+      </c>
     </row>
-    <row r="55" spans="1:471" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:472" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>409</v>
       </c>
@@ -80424,8 +80599,11 @@
       <c r="RC55">
         <v>1.2500000000000001E-2</v>
       </c>
+      <c r="RD55">
+        <v>101.4905262948255</v>
+      </c>
     </row>
-    <row r="56" spans="1:471" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:472" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>410</v>
       </c>
@@ -81861,8 +82039,11 @@
       <c r="RC56">
         <v>1.2500000000000001E-2</v>
       </c>
+      <c r="RD56">
+        <v>101.4905262948255</v>
+      </c>
     </row>
-    <row r="57" spans="1:471" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:472" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>411</v>
       </c>
@@ -83298,8 +83479,11 @@
       <c r="RC57">
         <v>1.2500000000000001E-2</v>
       </c>
+      <c r="RD57">
+        <v>104.3786390416463</v>
+      </c>
     </row>
-    <row r="58" spans="1:471" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:472" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>412</v>
       </c>
@@ -84735,8 +84919,11 @@
       <c r="RC58">
         <v>1.2500000000000001E-2</v>
       </c>
+      <c r="RD58">
+        <v>104.3786390416463</v>
+      </c>
     </row>
-    <row r="59" spans="1:471" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:472" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>413</v>
       </c>
@@ -86172,8 +86359,11 @@
       <c r="RC59">
         <v>1.2500000000000001E-2</v>
       </c>
+      <c r="RD59">
+        <v>104.3786390416463</v>
+      </c>
     </row>
-    <row r="60" spans="1:471" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:472" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>414</v>
       </c>
@@ -87609,8 +87799,11 @@
       <c r="RC60">
         <v>1.2500000000000001E-2</v>
       </c>
+      <c r="RD60">
+        <v>104.3786390416463</v>
+      </c>
     </row>
-    <row r="61" spans="1:471" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:472" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>415</v>
       </c>
@@ -89046,8 +89239,11 @@
       <c r="RC61">
         <v>9.4999999999999998E-3</v>
       </c>
+      <c r="RD61">
+        <v>107.1883373195604</v>
+      </c>
     </row>
-    <row r="62" spans="1:471" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:472" ht="15.75" x14ac:dyDescent="0.25">
       <c r="LF62" s="1"/>
       <c r="LG62" s="1"/>
       <c r="LH62" s="1"/>
@@ -89093,7 +89289,7 @@
       <c r="QF62" s="5"/>
       <c r="QK62" s="6"/>
     </row>
-    <row r="63" spans="1:471" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:472" ht="15.75" x14ac:dyDescent="0.25">
       <c r="LF63" s="1"/>
       <c r="LG63" s="1"/>
       <c r="LH63" s="1"/>
@@ -89139,7 +89335,7 @@
       <c r="QF63" s="5"/>
       <c r="QK63" s="6"/>
     </row>
-    <row r="64" spans="1:471" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:472" ht="15.75" x14ac:dyDescent="0.25">
       <c r="LF64" s="1"/>
       <c r="LG64" s="1"/>
       <c r="LH64" s="1"/>
@@ -89199,7 +89395,7 @@
       <c r="QF68" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/AAMK.xlsx
+++ b/AAMK.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon ik mig\Desktop\9. Semester\komp_r\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5764E9F-D621-452A-ACA1-C019EC222DA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{928E7F45-C5DD-4F07-A892-9E45847D4295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="533">
   <si>
     <t>IBA_h</t>
   </si>
@@ -1629,6 +1629,9 @@
   <si>
     <t>wage_ds_tt</t>
   </si>
+  <si>
+    <t>Kont_h</t>
+  </si>
 </sst>
 </file>
 
@@ -1637,10 +1640,17 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1722,27 +1732,30 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2062,11 +2075,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:RD68"/>
+  <dimension ref="A1:RE68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="141" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="141" zoomScaleNormal="60" workbookViewId="0">
       <pane xSplit="1" topLeftCell="QY1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="RG5" sqref="RG5"/>
+      <selection pane="topRight" activeCell="RJ19" sqref="RJ19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2077,7 +2090,7 @@
     <col min="468" max="468" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:472" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:473" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>496</v>
       </c>
@@ -3494,8 +3507,11 @@
       <c r="RD1" s="13" t="s">
         <v>531</v>
       </c>
+      <c r="RE1" s="14" t="s">
+        <v>532</v>
+      </c>
     </row>
-    <row r="2" spans="1:472" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:473" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>356</v>
       </c>
@@ -4913,8 +4929,11 @@
       <c r="RD2">
         <v>0</v>
       </c>
+      <c r="RE2">
+        <v>16451</v>
+      </c>
     </row>
-    <row r="3" spans="1:472" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:473" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>357</v>
       </c>
@@ -6332,8 +6351,11 @@
       <c r="RD3">
         <v>0</v>
       </c>
+      <c r="RE3">
+        <v>16451</v>
+      </c>
     </row>
-    <row r="4" spans="1:472" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:473" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>358</v>
       </c>
@@ -7751,8 +7773,11 @@
       <c r="RD4">
         <v>0</v>
       </c>
+      <c r="RE4">
+        <v>16451</v>
+      </c>
     </row>
-    <row r="5" spans="1:472" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:473" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>359</v>
       </c>
@@ -9170,8 +9195,11 @@
       <c r="RD5">
         <v>0</v>
       </c>
+      <c r="RE5">
+        <v>16027.75</v>
+      </c>
     </row>
-    <row r="6" spans="1:472" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:473" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>360</v>
       </c>
@@ -10589,8 +10617,11 @@
       <c r="RD6">
         <v>73.624889999999994</v>
       </c>
+      <c r="RE6">
+        <v>16027.75</v>
+      </c>
     </row>
-    <row r="7" spans="1:472" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:473" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>361</v>
       </c>
@@ -12008,8 +12039,11 @@
       <c r="RD7">
         <v>73.624889999999994</v>
       </c>
+      <c r="RE7">
+        <v>16027.75</v>
+      </c>
     </row>
-    <row r="8" spans="1:472" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:473" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>362</v>
       </c>
@@ -13427,8 +13461,11 @@
       <c r="RD8">
         <v>73.624889999999994</v>
       </c>
+      <c r="RE8">
+        <v>16027.75</v>
+      </c>
     </row>
-    <row r="9" spans="1:472" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:473" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>363</v>
       </c>
@@ -14846,8 +14883,11 @@
       <c r="RD9">
         <v>78.830493921899262</v>
       </c>
+      <c r="RE9">
+        <v>16486.75</v>
+      </c>
     </row>
-    <row r="10" spans="1:472" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:473" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>364</v>
       </c>
@@ -16265,8 +16305,11 @@
       <c r="RD10">
         <v>78.830493921899262</v>
       </c>
+      <c r="RE10">
+        <v>16486.75</v>
+      </c>
     </row>
-    <row r="11" spans="1:472" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:473" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>365</v>
       </c>
@@ -17684,8 +17727,11 @@
       <c r="RD11">
         <v>78.830493921899262</v>
       </c>
+      <c r="RE11">
+        <v>16486.75</v>
+      </c>
     </row>
-    <row r="12" spans="1:472" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:473" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>366</v>
       </c>
@@ -19103,8 +19149,11 @@
       <c r="RD12">
         <v>78.830493921899262</v>
       </c>
+      <c r="RE12">
+        <v>16486.75</v>
+      </c>
     </row>
-    <row r="13" spans="1:472" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:473" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>367</v>
       </c>
@@ -20522,8 +20571,11 @@
       <c r="RD13">
         <v>83.785328276118022</v>
       </c>
+      <c r="RE13">
+        <v>15468.5</v>
+      </c>
     </row>
-    <row r="14" spans="1:472" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:473" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>368</v>
       </c>
@@ -21941,8 +21993,11 @@
       <c r="RD14">
         <v>83.785328276118022</v>
       </c>
+      <c r="RE14">
+        <v>15468.5</v>
+      </c>
     </row>
-    <row r="15" spans="1:472" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:473" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>369</v>
       </c>
@@ -23360,8 +23415,11 @@
       <c r="RD15">
         <v>83.785328276118022</v>
       </c>
+      <c r="RE15">
+        <v>15468.5</v>
+      </c>
     </row>
-    <row r="16" spans="1:472" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:473" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>370</v>
       </c>
@@ -24779,8 +24837,11 @@
       <c r="RD16">
         <v>83.785328276118022</v>
       </c>
+      <c r="RE16">
+        <v>15468.5</v>
+      </c>
     </row>
-    <row r="17" spans="1:472" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:473" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>371</v>
       </c>
@@ -26198,8 +26259,11 @@
       <c r="RD17">
         <v>85.657543267993731</v>
       </c>
+      <c r="RE17">
+        <v>15244.25</v>
+      </c>
     </row>
-    <row r="18" spans="1:472" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:473" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>372</v>
       </c>
@@ -27617,8 +27681,11 @@
       <c r="RD18">
         <v>85.657543267993731</v>
       </c>
+      <c r="RE18">
+        <v>15244.25</v>
+      </c>
     </row>
-    <row r="19" spans="1:472" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:473" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>373</v>
       </c>
@@ -29036,8 +29103,11 @@
       <c r="RD19">
         <v>85.657543267993731</v>
       </c>
+      <c r="RE19">
+        <v>15244.25</v>
+      </c>
     </row>
-    <row r="20" spans="1:472" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:473" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>374</v>
       </c>
@@ -30455,8 +30525,11 @@
       <c r="RD20">
         <v>85.657543267993731</v>
       </c>
+      <c r="RE20">
+        <v>15244.25</v>
+      </c>
     </row>
-    <row r="21" spans="1:472" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:473" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>375</v>
       </c>
@@ -31874,8 +31947,11 @@
       <c r="RD21">
         <v>89.042390250323805</v>
       </c>
+      <c r="RE21">
+        <v>15209.5</v>
+      </c>
     </row>
-    <row r="22" spans="1:472" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:473" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>376</v>
       </c>
@@ -33293,8 +33369,11 @@
       <c r="RD22">
         <v>89.042390250323805</v>
       </c>
+      <c r="RE22">
+        <v>15209.5</v>
+      </c>
     </row>
-    <row r="23" spans="1:472" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:473" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>377</v>
       </c>
@@ -34712,8 +34791,11 @@
       <c r="RD23">
         <v>89.042390250323805</v>
       </c>
+      <c r="RE23">
+        <v>15209.5</v>
+      </c>
     </row>
-    <row r="24" spans="1:472" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:473" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>378</v>
       </c>
@@ -36131,8 +36213,11 @@
       <c r="RD24">
         <v>89.042390250323805</v>
       </c>
+      <c r="RE24">
+        <v>15209.5</v>
+      </c>
     </row>
-    <row r="25" spans="1:472" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:473" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>379</v>
       </c>
@@ -37550,8 +37635,11 @@
       <c r="RD25">
         <v>91.434446819117412</v>
       </c>
+      <c r="RE25">
+        <v>16795.25</v>
+      </c>
     </row>
-    <row r="26" spans="1:472" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:473" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>380</v>
       </c>
@@ -38969,8 +39057,11 @@
       <c r="RD26">
         <v>91.434446819117412</v>
       </c>
+      <c r="RE26">
+        <v>16795.25</v>
+      </c>
     </row>
-    <row r="27" spans="1:472" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:473" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>381</v>
       </c>
@@ -40388,8 +40479,11 @@
       <c r="RD27">
         <v>91.434446819117412</v>
       </c>
+      <c r="RE27">
+        <v>16795.25</v>
+      </c>
     </row>
-    <row r="28" spans="1:472" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:473" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>382</v>
       </c>
@@ -41807,8 +41901,11 @@
       <c r="RD28">
         <v>91.434446819117412</v>
       </c>
+      <c r="RE28">
+        <v>16795.25</v>
+      </c>
     </row>
-    <row r="29" spans="1:472" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:473" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>383</v>
       </c>
@@ -43226,8 +43323,11 @@
       <c r="RD29">
         <v>93.010487307060401</v>
       </c>
+      <c r="RE29">
+        <v>18107.25</v>
+      </c>
     </row>
-    <row r="30" spans="1:472" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:473" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>384</v>
       </c>
@@ -44645,8 +44745,11 @@
       <c r="RD30">
         <v>93.010487307060401</v>
       </c>
+      <c r="RE30">
+        <v>18107.25</v>
+      </c>
     </row>
-    <row r="31" spans="1:472" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:473" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>385</v>
       </c>
@@ -46064,8 +46167,11 @@
       <c r="RD31">
         <v>93.010487307060401</v>
       </c>
+      <c r="RE31">
+        <v>18107.25</v>
+      </c>
     </row>
-    <row r="32" spans="1:472" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:473" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>386</v>
       </c>
@@ -47503,8 +47609,11 @@
       <c r="RD32">
         <v>93.010487307060401</v>
       </c>
+      <c r="RE32">
+        <v>18107.25</v>
+      </c>
     </row>
-    <row r="33" spans="1:472" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:473" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>387</v>
       </c>
@@ -48942,8 +49051,11 @@
       <c r="RD33">
         <v>93.348491200670011</v>
       </c>
+      <c r="RE33">
+        <v>17589.25</v>
+      </c>
     </row>
-    <row r="34" spans="1:472" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:473" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>388</v>
       </c>
@@ -50381,8 +50493,11 @@
       <c r="RD34">
         <v>93.348491200670011</v>
       </c>
+      <c r="RE34">
+        <v>17589.25</v>
+      </c>
     </row>
-    <row r="35" spans="1:472" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:473" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>389</v>
       </c>
@@ -51820,8 +51935,11 @@
       <c r="RD35">
         <v>93.348491200670011</v>
       </c>
+      <c r="RE35">
+        <v>17589.25</v>
+      </c>
     </row>
-    <row r="36" spans="1:472" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:473" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>390</v>
       </c>
@@ -53259,8 +53377,11 @@
       <c r="RD36">
         <v>93.348491200670011</v>
       </c>
+      <c r="RE36">
+        <v>17589.25</v>
+      </c>
     </row>
-    <row r="37" spans="1:472" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:473" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>391</v>
       </c>
@@ -54698,8 +54819,11 @@
       <c r="RD37">
         <v>96.151637199606839</v>
       </c>
+      <c r="RE37">
+        <v>15420.5</v>
+      </c>
     </row>
-    <row r="38" spans="1:472" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:473" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>392</v>
       </c>
@@ -56137,8 +56261,11 @@
       <c r="RD38">
         <v>96.151637199606839</v>
       </c>
+      <c r="RE38">
+        <v>15420.5</v>
+      </c>
     </row>
-    <row r="39" spans="1:472" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:473" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>393</v>
       </c>
@@ -57576,8 +57703,11 @@
       <c r="RD39">
         <v>96.151637199606839</v>
       </c>
+      <c r="RE39">
+        <v>15420.5</v>
+      </c>
     </row>
-    <row r="40" spans="1:472" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:473" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>394</v>
       </c>
@@ -59015,8 +59145,11 @@
       <c r="RD40">
         <v>96.151637199606839</v>
       </c>
+      <c r="RE40">
+        <v>15420.5</v>
+      </c>
     </row>
-    <row r="41" spans="1:472" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:473" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>395</v>
       </c>
@@ -60454,8 +60587,11 @@
       <c r="RD41">
         <v>97.839080686057898</v>
       </c>
+      <c r="RE41">
+        <v>14818.25</v>
+      </c>
     </row>
-    <row r="42" spans="1:472" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:473" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>396</v>
       </c>
@@ -61893,8 +62029,11 @@
       <c r="RD42">
         <v>97.839080686057898</v>
       </c>
+      <c r="RE42">
+        <v>14818.25</v>
+      </c>
     </row>
-    <row r="43" spans="1:472" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:473" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>397</v>
       </c>
@@ -63332,8 +63471,11 @@
       <c r="RD43">
         <v>97.839080686057898</v>
       </c>
+      <c r="RE43">
+        <v>14818.25</v>
+      </c>
     </row>
-    <row r="44" spans="1:472" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:473" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>398</v>
       </c>
@@ -64771,8 +64913,11 @@
       <c r="RD44">
         <v>97.839080686057898</v>
       </c>
+      <c r="RE44">
+        <v>14818.25</v>
+      </c>
     </row>
-    <row r="45" spans="1:472" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:473" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>399</v>
       </c>
@@ -66210,8 +66355,11 @@
       <c r="RD45">
         <v>100.4043370259362</v>
       </c>
+      <c r="RE45">
+        <v>14535</v>
+      </c>
     </row>
-    <row r="46" spans="1:472" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:473" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>400</v>
       </c>
@@ -67649,8 +67797,11 @@
       <c r="RD46">
         <v>100.4043370259362</v>
       </c>
+      <c r="RE46">
+        <v>14535</v>
+      </c>
     </row>
-    <row r="47" spans="1:472" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:473" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>401</v>
       </c>
@@ -69088,8 +69239,11 @@
       <c r="RD47">
         <v>100.4043370259362</v>
       </c>
+      <c r="RE47">
+        <v>14535</v>
+      </c>
     </row>
-    <row r="48" spans="1:472" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:473" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>402</v>
       </c>
@@ -70527,8 +70681,11 @@
       <c r="RD48">
         <v>100.4043370259362</v>
       </c>
+      <c r="RE48">
+        <v>14535</v>
+      </c>
     </row>
-    <row r="49" spans="1:472" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:473" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>403</v>
       </c>
@@ -71966,8 +72123,11 @@
       <c r="RD49">
         <v>100.5869555929423</v>
       </c>
+      <c r="RE49">
+        <v>14653.75</v>
+      </c>
     </row>
-    <row r="50" spans="1:472" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:473" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>404</v>
       </c>
@@ -73405,8 +73565,11 @@
       <c r="RD50">
         <v>100.5869555929423</v>
       </c>
+      <c r="RE50">
+        <v>14653.75</v>
+      </c>
     </row>
-    <row r="51" spans="1:472" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:473" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>405</v>
       </c>
@@ -74844,8 +75007,11 @@
       <c r="RD51">
         <v>100.5869555929423</v>
       </c>
+      <c r="RE51">
+        <v>14653.75</v>
+      </c>
     </row>
-    <row r="52" spans="1:472" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:473" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>406</v>
       </c>
@@ -76283,8 +76449,11 @@
       <c r="RD52">
         <v>100.5869555929423</v>
       </c>
+      <c r="RE52">
+        <v>14653.75</v>
+      </c>
     </row>
-    <row r="53" spans="1:472" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:473" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>407</v>
       </c>
@@ -77722,8 +77891,11 @@
       <c r="RD53">
         <v>101.4905262948255</v>
       </c>
+      <c r="RE53">
+        <v>13142.5</v>
+      </c>
     </row>
-    <row r="54" spans="1:472" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:473" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>408</v>
       </c>
@@ -79162,8 +79334,11 @@
       <c r="RD54">
         <v>101.4905262948255</v>
       </c>
+      <c r="RE54">
+        <v>13142.5</v>
+      </c>
     </row>
-    <row r="55" spans="1:472" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:473" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>409</v>
       </c>
@@ -80602,8 +80777,11 @@
       <c r="RD55">
         <v>101.4905262948255</v>
       </c>
+      <c r="RE55">
+        <v>13142.5</v>
+      </c>
     </row>
-    <row r="56" spans="1:472" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:473" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>410</v>
       </c>
@@ -82042,8 +82220,11 @@
       <c r="RD56">
         <v>101.4905262948255</v>
       </c>
+      <c r="RE56">
+        <v>13142.5</v>
+      </c>
     </row>
-    <row r="57" spans="1:472" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:473" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>411</v>
       </c>
@@ -83482,8 +83663,11 @@
       <c r="RD57">
         <v>104.3786390416463</v>
       </c>
+      <c r="RE57">
+        <v>12309</v>
+      </c>
     </row>
-    <row r="58" spans="1:472" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:473" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>412</v>
       </c>
@@ -84922,8 +85106,11 @@
       <c r="RD58">
         <v>104.3786390416463</v>
       </c>
+      <c r="RE58">
+        <v>12309</v>
+      </c>
     </row>
-    <row r="59" spans="1:472" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:473" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>413</v>
       </c>
@@ -86362,8 +86549,11 @@
       <c r="RD59">
         <v>104.3786390416463</v>
       </c>
+      <c r="RE59">
+        <v>12309</v>
+      </c>
     </row>
-    <row r="60" spans="1:472" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:473" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>414</v>
       </c>
@@ -87802,8 +87992,11 @@
       <c r="RD60">
         <v>104.3786390416463</v>
       </c>
+      <c r="RE60">
+        <v>12309</v>
+      </c>
     </row>
-    <row r="61" spans="1:472" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:473" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>415</v>
       </c>
@@ -89242,8 +89435,11 @@
       <c r="RD61">
         <v>107.1883373195604</v>
       </c>
+      <c r="RE61">
+        <v>12564.5</v>
+      </c>
     </row>
-    <row r="62" spans="1:472" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:473" ht="15.75" x14ac:dyDescent="0.25">
       <c r="LF62" s="1"/>
       <c r="LG62" s="1"/>
       <c r="LH62" s="1"/>
@@ -89289,7 +89485,7 @@
       <c r="QF62" s="5"/>
       <c r="QK62" s="6"/>
     </row>
-    <row r="63" spans="1:472" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:473" ht="15.75" x14ac:dyDescent="0.25">
       <c r="LF63" s="1"/>
       <c r="LG63" s="1"/>
       <c r="LH63" s="1"/>
@@ -89335,7 +89531,7 @@
       <c r="QF63" s="5"/>
       <c r="QK63" s="6"/>
     </row>
-    <row r="64" spans="1:472" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:473" ht="15.75" x14ac:dyDescent="0.25">
       <c r="LF64" s="1"/>
       <c r="LG64" s="1"/>
       <c r="LH64" s="1"/>
@@ -89395,7 +89591,7 @@
       <c r="QF68" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
